--- a/QA_LegendBilling/src/test/resources/TestData.xlsx
+++ b/QA_LegendBilling/src/test/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E3076CB-50FD-4C94-BC97-AD8B944B036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\QA_Legend\QA_LegendBilling\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74604FD2-35DE-434A-80C5-F87F10FDD13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HompePageTest" sheetId="2" r:id="rId1"/>
@@ -19,7 +24,6 @@
     <sheet name="StockTransferPageTest" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,11 +100,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFDD4B39"/>
-      <name val="Source Sans Pro"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,13 +127,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BC237-15C3-4945-A0A4-F90507B53286}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +493,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -599,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831A461-62D7-442F-9DE9-C157828A538D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
